--- a/Gjeldene_analyser/Resultatskjema_ITT.xlsx
+++ b/Gjeldene_analyser/Resultatskjema_ITT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Breili/Documents/HINN/Masteroppgave/1. NY MASTERPROSJEKT/RESULTATER/Masteroppgave/Gjeldene_analyser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B18A80-A6E8-CD44-A48D-3F63266DD8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DFEA58-2A45-3F48-BB3D-A767EE25FCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="520" windowWidth="27640" windowHeight="16440" xr2:uid="{2A5228E7-796B-B944-8C22-19602F847E4B}"/>
+    <workbookView xWindow="-32960" yWindow="1960" windowWidth="27640" windowHeight="16440" xr2:uid="{2A5228E7-796B-B944-8C22-19602F847E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,12 +288,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC07823-6139-9240-9800-F5AB902CB4C1}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:L77"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H60" sqref="H59:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3280,48 +3274,41 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="13">
-        <v>1</v>
-      </c>
-      <c r="E71" s="14">
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
         <v>61</v>
       </c>
-      <c r="F71" s="15">
-        <f>121*1.01279</f>
-        <v>122.54759000000001</v>
-      </c>
-      <c r="G71" s="15">
-        <f>2990.013073*0.99437</f>
+      <c r="F71" s="5">
+        <v>122.5</v>
+      </c>
+      <c r="G71" s="5">
         <v>2973.1792993990098</v>
       </c>
-      <c r="H71" s="15">
-        <f>10*1.010622</f>
+      <c r="H71" s="5">
         <v>10.106219999999999</v>
       </c>
-      <c r="I71" s="15">
-        <f>1.58*1.03655</f>
+      <c r="I71" s="5">
         <v>1.6377490000000001</v>
       </c>
-      <c r="J71" s="15">
-        <f>1*1.05251</f>
+      <c r="J71" s="5">
         <v>1.0525100000000001</v>
       </c>
-      <c r="K71" s="15">
-        <f>5.7*1.05251</f>
+      <c r="K71" s="5">
         <v>5.9993070000000008</v>
       </c>
-      <c r="L71" s="16">
-        <f>12.2*1.01279</f>
+      <c r="L71" s="6">
         <v>12.356038</v>
       </c>
     </row>
@@ -3342,31 +3329,24 @@
         <v>66</v>
       </c>
       <c r="F72" s="5">
-        <f>85*1.01279</f>
-        <v>86.087150000000008</v>
+        <v>86.1</v>
       </c>
       <c r="G72" s="5">
-        <f>1165.5540815*0.99437</f>
         <v>1158.992012021155</v>
       </c>
       <c r="H72" s="5">
-        <f>5.8*1.010622</f>
         <v>5.8616075999999993</v>
       </c>
       <c r="I72" s="5">
-        <f>0.86*1.03655</f>
         <v>0.89143300000000003</v>
       </c>
       <c r="J72" s="5">
-        <f>1.5*1.05251</f>
         <v>1.5787650000000002</v>
       </c>
       <c r="K72" s="5">
-        <f>3.4*1.05251</f>
         <v>3.5785339999999999</v>
       </c>
       <c r="L72" s="5">
-        <f>8.1*1.01279</f>
         <v>8.2035990000000005</v>
       </c>
     </row>
@@ -3387,30 +3367,24 @@
         <v>45</v>
       </c>
       <c r="F73" s="5">
-        <f>90.5*1.01279</f>
-        <v>91.657495000000011</v>
+        <v>91.7</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H73" s="5">
-        <f>4.2*1.010622</f>
         <v>4.2446123999999994</v>
       </c>
       <c r="I73" s="5">
-        <f>0.98*1.03655</f>
         <v>1.015819</v>
       </c>
       <c r="J73" s="5">
-        <f>1.2*1.05251</f>
         <v>1.263012</v>
       </c>
       <c r="K73" s="5">
-        <f>2.7*1.05251</f>
         <v>2.8417770000000004</v>
       </c>
       <c r="L73" s="5">
-        <f>6.7*1.01279</f>
         <v>6.7856930000000011</v>
       </c>
     </row>
@@ -3431,31 +3405,24 @@
         <v>46</v>
       </c>
       <c r="F74" s="5">
-        <f>145.5*1.01279</f>
-        <v>147.36094500000002</v>
+        <v>147.4</v>
       </c>
       <c r="G74" s="5">
-        <f>3402.2670965*0.99437</f>
         <v>3383.1123327467053</v>
       </c>
       <c r="H74" s="5">
-        <f>5.7*1.010622</f>
         <v>5.7605453999999998</v>
       </c>
       <c r="I74" s="5">
-        <f>1.97*1.03655</f>
         <v>2.0420035000000003</v>
       </c>
       <c r="J74" s="5">
-        <f>1.2*1.05251</f>
         <v>1.263012</v>
       </c>
       <c r="K74" s="5">
-        <f>3.5*1.05251</f>
         <v>3.6837850000000003</v>
       </c>
       <c r="L74" s="6">
-        <f>9.5*1.01279</f>
         <v>9.6215050000000009</v>
       </c>
     </row>
@@ -3476,27 +3443,21 @@
         <v>39</v>
       </c>
       <c r="F75" s="5">
-        <f>119.05*1.01279</f>
-        <v>120.57264950000001</v>
+        <v>120.6</v>
       </c>
       <c r="G75" s="5">
-        <f>2808.6628415*0.99437</f>
         <v>2792.8500697023551</v>
       </c>
       <c r="H75" s="5">
-        <f>5*1.010622</f>
         <v>5.0531099999999993</v>
       </c>
       <c r="I75" s="5">
-        <f>2.06*1.03655</f>
         <v>2.1352930000000003</v>
       </c>
       <c r="J75" s="5">
-        <f>1*1.05251</f>
         <v>1.0525100000000001</v>
       </c>
       <c r="K75" s="5">
-        <f>3.6*1.05251</f>
         <v>3.7890360000000003</v>
       </c>
       <c r="L75" s="6" t="s">
@@ -3521,31 +3482,24 @@
         <v>56</v>
       </c>
       <c r="F76" s="5">
-        <f>90.55*1.01279</f>
-        <v>91.7081345</v>
+        <v>91.7</v>
       </c>
       <c r="G76" s="5">
-        <f>1303.1016995*0.99437</f>
         <v>1295.765236931815</v>
       </c>
       <c r="H76" s="5">
-        <f>4.8*1.010622</f>
         <v>4.8509855999999996</v>
       </c>
       <c r="I76" s="5">
-        <f>2.95*1.03655</f>
         <v>3.0578225000000003</v>
       </c>
       <c r="J76" s="5">
-        <f>1.2*1.05251</f>
         <v>1.263012</v>
       </c>
       <c r="K76" s="5">
-        <f>5*1.05251</f>
         <v>5.2625500000000001</v>
       </c>
       <c r="L76" s="5">
-        <f>7.4*1.01279</f>
         <v>7.4946460000000013</v>
       </c>
     </row>
@@ -3566,31 +3520,24 @@
         <v>46</v>
       </c>
       <c r="F77" s="5">
-        <f>80.5*1.01279</f>
-        <v>81.529595</v>
+        <v>81.5</v>
       </c>
       <c r="G77" s="5">
-        <f>773.5568678*0.99437</f>
         <v>769.20174263428589</v>
       </c>
       <c r="H77" s="5">
-        <f>4.6*1.010622</f>
         <v>4.6488611999999989</v>
       </c>
       <c r="I77" s="5">
-        <f>1.53*1.03655</f>
         <v>1.5859215000000002</v>
       </c>
       <c r="J77" s="5">
-        <f>1.5*1.05251</f>
         <v>1.5787650000000002</v>
       </c>
       <c r="K77" s="5">
-        <f>3.5*1.05251</f>
         <v>3.6837850000000003</v>
       </c>
       <c r="L77" s="5">
-        <f>5.4*1.01279</f>
         <v>5.4690660000000006</v>
       </c>
     </row>
